--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -20,15 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">l2polrnwl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77030081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2newunitd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">job1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job20</t>
   </si>
 </sst>
 </file>
@@ -137,10 +191,10 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1008" style="0" width="11.52"/>
   </cols>
@@ -169,7 +223,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>48655</v>
@@ -180,7 +234,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>48655</v>
@@ -191,7 +245,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>48686</v>
@@ -202,7 +256,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>48686</v>
@@ -213,7 +267,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>48716</v>
@@ -224,7 +278,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>48716</v>
@@ -235,7 +289,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>48747</v>
@@ -246,7 +300,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>48747</v>
@@ -257,7 +311,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>48777</v>
@@ -268,7 +322,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>48777</v>
@@ -279,7 +333,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>48808</v>
@@ -290,7 +344,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>48808</v>
@@ -301,7 +355,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>48839</v>
@@ -312,7 +366,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>48839</v>
@@ -323,7 +377,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>48869</v>
@@ -334,7 +388,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>48869</v>
@@ -345,7 +399,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>48900</v>
@@ -356,7 +410,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>48900</v>
